--- a/results/ElasticNet_randomsearch-train_df.xlsx
+++ b/results/ElasticNet_randomsearch-train_df.xlsx
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7358490566037736</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6918767507002801</v>
+        <v>0.6898584905660378</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6966507177033493</v>
+        <v>0.6925837320574163</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6929245283018869</v>
+        <v>0.6908831908831909</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7051896027228095</v>
+        <v>0.7017143436802598</v>
       </c>
       <c r="C26" t="n">
         <v>0.6989247311827957</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7007709474538447</v>
+        <v>0.6999969365560763</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/ElasticNet_randomsearch-train_df.xlsx
+++ b/results/ElasticNet_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.6796116504854369</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6375</v>
+        <v>0.6445868945868947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6421052631578947</v>
+        <v>0.6412337662337663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6323255813953488</v>
+        <v>0.6410106445198269</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6550179211469533</v>
+        <v>0.6447783598321234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6373843460865216</v>
+        <v>0.6430859674212038</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6796116504854369</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6423611111111112</v>
+        <v>0.6457528957528957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6471291866028708</v>
+        <v>0.6400742115027829</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6410106445198269</v>
+        <v>0.6391534391534391</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6582287933094384</v>
+        <v>0.6455972101133393</v>
       </c>
       <c r="C11" t="n">
         <v>0.6451612903225806</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6480667423845083</v>
+        <v>0.6416567104739147</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5777777777777778</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.65</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6036585365853658</v>
+        <v>0.655188679245283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6057416267942584</v>
+        <v>0.6525974025974026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5909722222222222</v>
+        <v>0.6526610644257703</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6226068712300026</v>
+        <v>0.6554676404950295</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5933841099163679</v>
+        <v>0.6544682389084666</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C17" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.58</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5625</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5600375234521576</v>
+        <v>0.546218487394958</v>
       </c>
       <c r="C20" t="n">
-        <v>0.561244019138756</v>
+        <v>0.5459183673469388</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5479166666666666</v>
+        <v>0.5458139534883721</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.578042728318102</v>
+        <v>0.5474232703834222</v>
       </c>
       <c r="C21" t="n">
         <v>0.5483870967741935</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5505824372759857</v>
+        <v>0.5476519129782446</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.625</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5609756097560975</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6898584905660378</v>
+        <v>0.6117224880382774</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6925837320574163</v>
+        <v>0.6083024118738405</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6908831908831909</v>
+        <v>0.6074108818011257</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7017143436802598</v>
+        <v>0.6120697638524463</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6999969365560763</v>
+        <v>0.6099074018035465</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
